--- a/dataset/vendeur.xlsx
+++ b/dataset/vendeur.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19BF4A9-8080-458A-A507-188FD4D941B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB8D1B2-3D6C-4FA0-91BD-14BD977A1435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>Les ventes de Salomon sont-elles supérieures au concurrent ?</t>
   </si>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -494,6 +494,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
